--- a/书单.xlsx
+++ b/书单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="第一次看的书" sheetId="1" r:id="rId1"/>
@@ -113,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -171,6 +176,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -188,6 +196,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -251,7 +262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +295,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,6 +347,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,21 +542,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,15 +576,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="3">
+        <v>0.84</v>
+      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -547,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -555,7 +603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -563,7 +611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -585,16 +633,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -605,22 +653,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -637,7 +685,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/书单.xlsx
+++ b/书单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="第一次看的书" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,74 +46,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2017.4.28-2017.5.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入理解java虚拟机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.6.1-2017.7.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadoop权威指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.8.1-2017.10.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构与算法分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有进度原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redis实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java编程思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2017.4.4-2017.4.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2017.4.28-2017.5.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深入理解java虚拟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.6.1-2017.7.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hadoop权威指南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.8.1-2017.10.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effective java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据结构与算法分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有进度原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redis实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java编程思想</t>
+    <t>放假回家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,9 +196,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -262,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,26 +291,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,23 +326,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,20 +505,20 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,53 +532,56 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.84</v>
-      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="3">
+        <v>0.13</v>
+      </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -637,40 +602,40 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -685,10 +650,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/书单.xlsx
+++ b/书单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="第一次看的书" sheetId="1" r:id="rId1"/>
@@ -117,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,6 +201,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -258,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,9 +299,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,6 +351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,20 +547,20 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -538,7 +580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -549,18 +591,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="3">
+        <v>0.13</v>
+      </c>
       <c r="C3" s="3">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -568,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -576,7 +621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -602,12 +647,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -618,22 +663,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -650,7 +695,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/书单.xlsx
+++ b/书单.xlsx
@@ -596,10 +596,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>0.13</v>
+        <v>0.27</v>
       </c>
       <c r="C3" s="3">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>

--- a/书单.xlsx
+++ b/书单.xlsx
@@ -596,10 +596,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="C3" s="3">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>

--- a/书单.xlsx
+++ b/书单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="第一次看的书" sheetId="1" r:id="rId1"/>
@@ -122,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,26 +294,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,23 +329,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,17 +511,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,7 +541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -591,21 +552,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="C3" s="3">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -613,7 +574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -621,7 +582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -647,12 +608,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -663,22 +624,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -695,9 +656,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/书单.xlsx
+++ b/书单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="第一次看的书" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>书本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,13 +116,21 @@
   </si>
   <si>
     <t>放假回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我有罪，明天完不成了，定在五一之前吧。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,15 +217,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F6" totalsRowShown="0">
-  <autoFilter ref="A1:F6"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="书本" dataDxfId="0"/>
     <tableColumn id="2" name="前一天的进度"/>
     <tableColumn id="3" name="后一天的进度"/>
     <tableColumn id="4" name="预计完成时间"/>
     <tableColumn id="5" name="实际完成时间"/>
     <tableColumn id="6" name="没有进度原因"/>
+    <tableColumn id="7" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -261,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,9 +308,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,6 +360,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,23 +553,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G4" activeCellId="1" sqref="G3 G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,8 +589,11 @@
       <c r="F1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -552,21 +604,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c r="C3" s="3">
-        <v>0.69</v>
+        <v>0.84</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -574,7 +629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -582,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -608,12 +663,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -624,22 +679,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -656,9 +711,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/书单.xlsx
+++ b/书单.xlsx
@@ -557,10 +557,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="C3" s="3">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>

--- a/书单.xlsx
+++ b/书单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="19392" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="19395" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="第一次看的书" sheetId="1" r:id="rId1"/>
@@ -130,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,26 +303,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,23 +338,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -556,21 +517,21 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" activeCellId="1" sqref="G3 G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -593,7 +554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -604,7 +565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -621,15 +582,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C4" s="3">
+        <v>0.25</v>
+      </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -637,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -663,12 +627,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -679,22 +643,22 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -711,9 +675,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
